--- a/out/production/DataMiningGUI/python/import.xlsx
+++ b/out/production/DataMiningGUI/python/import.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tuan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tuan\Desktop\TEst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F8E8BB-670E-4EA0-9C83-7A57DD8989D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CA5E74-FFD4-4597-8A22-02AB48D72AB0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E3FA9F07-2E47-4CDC-8A86-05BB42D222D1}"/>
+    <workbookView xWindow="7665" yWindow="1425" windowWidth="15375" windowHeight="7875" xr2:uid="{8F885861-9CDA-458F-8304-EFCD2DB8BFE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,51 +31,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>budget</t>
-  </si>
-  <si>
-    <t>gross</t>
-  </si>
-  <si>
-    <t>user_vote</t>
-  </si>
-  <si>
-    <t>critic_review_ratio</t>
-  </si>
-  <si>
-    <t>movie_fb</t>
-  </si>
-  <si>
-    <t>director_fb</t>
-  </si>
-  <si>
-    <t>actor1_fb</t>
-  </si>
-  <si>
-    <t>other_actors_fb</t>
-  </si>
-  <si>
-    <t>duration</t>
-  </si>
-  <si>
-    <t>face_number</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>R</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Outlook</t>
+  </si>
+  <si>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>Humidity</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Sunny</t>
+  </si>
+  <si>
+    <t>Strong</t>
+  </si>
+  <si>
+    <t>Mild</t>
+  </si>
+  <si>
+    <t>Normal</t>
   </si>
 </sst>
 </file>
@@ -426,16 +405,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903B3939-DE2F-41B4-A8FC-D85DF7715F90}">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873B35B2-0325-4D68-9CE9-0DB814B8E28C}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="A2:M2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,76 +427,23 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>8000000</v>
-      </c>
-      <c r="B2">
-        <v>59889948</v>
-      </c>
-      <c r="C2">
-        <v>355810</v>
-      </c>
-      <c r="D2">
-        <v>0.30371203600000002</v>
-      </c>
-      <c r="E2">
-        <v>15000</v>
-      </c>
-      <c r="F2">
-        <v>36</v>
-      </c>
-      <c r="G2">
-        <v>7000</v>
-      </c>
-      <c r="H2">
-        <v>177</v>
-      </c>
-      <c r="I2">
-        <v>101</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>2006</v>
-      </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>